--- a/Config Files/MainAnalog_V0.xlsx
+++ b/Config Files/MainAnalog_V0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B0C5C3-04B1-4FA5-BA12-C3FB0C9E3715}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6900BD-BA29-4EA4-BF48-30B31C5ECF53}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="134">
   <si>
     <t>Version: 1</t>
   </si>
@@ -68,13 +68,367 @@
   </si>
   <si>
     <t>High limit</t>
+  </si>
+  <si>
+    <t>Temperature stpt</t>
+  </si>
+  <si>
+    <t>External setpoint</t>
+  </si>
+  <si>
+    <t>Temperature act stpt</t>
+  </si>
+  <si>
+    <t>1 Temperature stpt</t>
+  </si>
+  <si>
+    <t>2 Temperature stpt</t>
+  </si>
+  <si>
+    <t>Comfort tmp deadz</t>
+  </si>
+  <si>
+    <t>Economy tmp deadz</t>
+  </si>
+  <si>
+    <t>Comfort htg stpt</t>
+  </si>
+  <si>
+    <t>Comfort clg stpt</t>
+  </si>
+  <si>
+    <t>Economy htg stpt</t>
+  </si>
+  <si>
+    <t>Economy clg stpt</t>
+  </si>
+  <si>
+    <t>Outs air temp X1</t>
+  </si>
+  <si>
+    <t>Outs air temp X2</t>
+  </si>
+  <si>
+    <t>Supply air temp Y1</t>
+  </si>
+  <si>
+    <t>Supply air temp Y2</t>
+  </si>
+  <si>
+    <t>Hum stpt rel</t>
+  </si>
+  <si>
+    <t>Humidity deadz rel</t>
+  </si>
+  <si>
+    <t>Air quality stpt</t>
+  </si>
+  <si>
+    <t>Supply air flow stpt</t>
+  </si>
+  <si>
+    <t>Extract air flow stpt</t>
+  </si>
+  <si>
+    <t>Supply air flow act stpt</t>
+  </si>
+  <si>
+    <t>Extract air flow act stpt</t>
+  </si>
+  <si>
+    <t>Supply air pressure stpt</t>
+  </si>
+  <si>
+    <t>Extract air pressure stpt</t>
+  </si>
+  <si>
+    <t>Supply air press act stpt</t>
+  </si>
+  <si>
+    <t>Extract air pressure act stpt</t>
+  </si>
+  <si>
+    <t>Min fresh air</t>
+  </si>
+  <si>
+    <t>Supply fan stpt</t>
+  </si>
+  <si>
+    <t>Extract fan stpt</t>
+  </si>
+  <si>
+    <t>2 Extract fan stpt</t>
+  </si>
+  <si>
+    <t>3 Extract fan stpt</t>
+  </si>
+  <si>
+    <t>4 Extract fan stpt</t>
+  </si>
+  <si>
+    <t>5 Extract fan stpt</t>
+  </si>
+  <si>
+    <t>6 Extract fan stpt</t>
+  </si>
+  <si>
+    <t>7 Extract fan stpt</t>
+  </si>
+  <si>
+    <t>8 Extract fan stpt</t>
+  </si>
+  <si>
+    <t>9 Extract fan stpt</t>
+  </si>
+  <si>
+    <t>2 Extract air flow stpt</t>
+  </si>
+  <si>
+    <t>3 Extract air flow stpt</t>
+  </si>
+  <si>
+    <t>4 Extract air flow stpt</t>
+  </si>
+  <si>
+    <t>5 Extract air flow stpt</t>
+  </si>
+  <si>
+    <t>6 Extract air flow stpt</t>
+  </si>
+  <si>
+    <t>7 Extract air flow stpt</t>
+  </si>
+  <si>
+    <t>8 Extract air flow stpt</t>
+  </si>
+  <si>
+    <t>9 Extract air flow stpt</t>
+  </si>
+  <si>
+    <t>Following factor</t>
+  </si>
+  <si>
+    <t>Frost setpoint</t>
+  </si>
+  <si>
+    <t>Economy setpoint</t>
+  </si>
+  <si>
+    <t>K-fact supply fan</t>
+  </si>
+  <si>
+    <t>K-fact extract fan</t>
+  </si>
+  <si>
+    <t>Supply tmp min stpt</t>
+  </si>
+  <si>
+    <t>Supply tmp max stpt</t>
+  </si>
+  <si>
+    <t>Min/max ctrlr sply delta</t>
+  </si>
+  <si>
+    <t>Su/Wi clg stpt</t>
+  </si>
+  <si>
+    <t>Su/Wi htg stpt</t>
+  </si>
+  <si>
+    <t>Supply hum max stpt</t>
+  </si>
+  <si>
+    <t>Damper delay off</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.SpvTemperature'</t>
+  </si>
+  <si>
+    <t>0x230A 'Unit1\TempControl.TmpActSpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.Aux1SpvTemp'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.Aux2SpvTemp'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.DeadBandComf'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.DeadBandEco'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.SpvTmpHtgCmf'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.SpvTmpClgCmf'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.SpvTmpHtgEco'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.SpvTmpClgEco'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.SpvTmpOutMin'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.SpvTmpOutMax'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.SpvTmpSplyMin'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.SpvTmpSplyMax'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\aoHumitityControl.HumiditySpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\aoHumitityControl.DeadBandHum'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.AirQSpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.FlowSplySpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.FlowExtSpv'</t>
+  </si>
+  <si>
+    <t>0x230A 'Unit1\FanControl.FlowSplyActSpv'</t>
+  </si>
+  <si>
+    <t>0x230A 'Unit1\FanControl.FlowExtActSpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.DuctPSplySpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.DuctPExtSpv'</t>
+  </si>
+  <si>
+    <t>0x230A 'Unit1\FanControl.DuctPSplyActSpv'</t>
+  </si>
+  <si>
+    <t>0x230A 'Unit1\FanControl.DuctPExtActSpv'</t>
+  </si>
+  <si>
+    <t>0x2300 'Unit1\TempControl.MixDmpClsdCtrl.minFrshAir'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.SplyFanRegSpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.ExtFanRegSpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.ExtFan2RegSpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.ExtFan3RegSpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.ExtFan4RegSpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.ExtFan5RegSpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.ExtFan6RegSpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.ExtFan7RegSpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.ExtFan8RegSpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.ExtFan9RegSpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.FlowExtFan2Spv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.FlowExtFan3Spv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.FlowExtFan4Spv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.FlowExtFan5Spv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.FlowExtFan6Spv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.FlowExtFan7Spv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.FlowExtFan8Spv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.FlowExtFan9Spv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.FollowingFactor'</t>
+  </si>
+  <si>
+    <t>0x2300 'Unit1\FanControl.FrostSpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.SpvEconomyMode'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.KFactorSplyFan'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\FanControl.KFactorExtFan'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.MinMaxTmpCtrl.MinSpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.MinMaxTmpCtrl.MaxSpv'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.TDeltaMinMaxCsc'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.SpvTChovrClg'</t>
+  </si>
+  <si>
+    <t>0x2301 'Unit1\TempControl.SpvTChovrHtg'</t>
+  </si>
+  <si>
+    <t>0x2300 'Unit1\aoHumitityControl.HumMaxCtlr.MaxSpv'</t>
+  </si>
+  <si>
+    <t>0x2300 'Unit1\FanControl.DampDlyOff'</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.ExtTempSpv'</t>
+  </si>
+  <si>
+    <t>&lt; 2</t>
+  </si>
+  <si>
+    <t>&gt; 0</t>
+  </si>
+  <si>
+    <t>== 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +444,11 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,14 +471,381 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="52">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -395,15 +1121,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
@@ -464,7 +1194,2946 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>121</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>833</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>41</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>-64</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>128</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>-64</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>141</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>142</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>122</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>123</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>125</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>126</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>21</v>
+      </c>
+      <c r="O11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>127</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>128</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>23</v>
+      </c>
+      <c r="O13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>129</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>130</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>131</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>132</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>157</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>-64</v>
+      </c>
+      <c r="O18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>158</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>-64</v>
+      </c>
+      <c r="O19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>805</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>110</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>51</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>53</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>122</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24">
+        <v>19</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>124</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>81</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26">
+        <v>11</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>82</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>126</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28">
+        <v>21</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>127</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>887</v>
+      </c>
+      <c r="F29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>156</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30">
+        <v>19</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>90</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>91</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32">
+        <v>21</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>92</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33">
+        <v>22</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>93</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34">
+        <v>23</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>94</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35">
+        <v>24</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>95</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36">
+        <v>25</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>96</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37">
+        <v>26</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>97</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38">
+        <v>27</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>98</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39">
+        <v>28</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>99</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>55</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>57</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>59</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>129</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>61</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>63</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>65</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>67</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>129</v>
+      </c>
+      <c r="H47">
+        <v>9</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>69</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48">
+        <v>15</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>86</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>129</v>
+      </c>
+      <c r="H49">
+        <v>18</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <v>89</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>-64</v>
+      </c>
+      <c r="O49">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H50">
+        <v>14</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>85</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>30</v>
+      </c>
+      <c r="O50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>129</v>
+      </c>
+      <c r="H51">
+        <v>12</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>83</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>129</v>
+      </c>
+      <c r="H52">
+        <v>13</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>84</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>843</v>
+      </c>
+      <c r="F53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" t="s">
+        <v>129</v>
+      </c>
+      <c r="H53" t="s">
+        <v>129</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>146</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>10</v>
+      </c>
+      <c r="O53">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54">
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>843</v>
+      </c>
+      <c r="F54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" t="s">
+        <v>129</v>
+      </c>
+      <c r="H54" t="s">
+        <v>129</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>147</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>16</v>
+      </c>
+      <c r="O54">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>843</v>
+      </c>
+      <c r="F55" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" t="s">
+        <v>129</v>
+      </c>
+      <c r="H55" t="s">
+        <v>129</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>148</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>54</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>823</v>
+      </c>
+      <c r="F56" t="s">
+        <v>129</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" t="s">
+        <v>129</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>143</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57">
+        <v>55</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>823</v>
+      </c>
+      <c r="F57" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" t="s">
+        <v>129</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <v>144</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>20</v>
+      </c>
+      <c r="O57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>912</v>
+      </c>
+      <c r="F58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" t="s">
+        <v>129</v>
+      </c>
+      <c r="H58" t="s">
+        <v>129</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>159</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59">
+        <v>57</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>808</v>
+      </c>
+      <c r="F59" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59" t="s">
+        <v>129</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <v>115</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>36000</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="cellIs" dxfId="51" priority="54" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="cellIs" dxfId="50" priority="53" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="49" priority="50" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="48" priority="49" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A7">
+    <cfRule type="cellIs" dxfId="47" priority="48" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A7">
+    <cfRule type="cellIs" dxfId="46" priority="47" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A9">
+    <cfRule type="cellIs" dxfId="45" priority="46" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A9">
+    <cfRule type="cellIs" dxfId="44" priority="45" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:A13">
+    <cfRule type="cellIs" dxfId="43" priority="44" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:A13">
+    <cfRule type="cellIs" dxfId="42" priority="43" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:A17">
+    <cfRule type="cellIs" dxfId="41" priority="42" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:A17">
+    <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="39" priority="40" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="38" priority="39" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:A22">
+    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:A22">
+    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A24">
+    <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A24">
+    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A26">
+    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A26">
+    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:A28">
+    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:A28">
+    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:A39">
+    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:A39">
+    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:A47">
+    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:A47">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:A52">
+    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:A52">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:A57">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:A57">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Config Files/MainAnalog_V0.xlsx
+++ b/Config Files/MainAnalog_V0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6900BD-BA29-4EA4-BF48-30B31C5ECF53}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3278C5-443B-492A-9F03-699A8321AD0A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,257 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{C54B3685-A16C-4EEC-856E-7B9CC26E5C21}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ID iz tablice stringova u weinteku
+[004] SetpointsMainAnalog</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{3C3E8BE6-C257-411E-8FE8-9D37AE102B39}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+registar za provjeru postojanja stignala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{C5D33290-2C72-4322-9018-FB7A091B30B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+adresa za provjeru postojanja signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{89C8D8E1-8B29-4C4D-B5B1-AEA3F8A97359}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DW za provjeru postojanja signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{8A757FE3-A823-425B-9547-D5CEBE1D44B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+uvijet za provjeru postojanja signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{892AA8F1-4FC4-499A-9C98-8B8BD23F8BDE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pozicija bita u DW-u za provjeru postojanja signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{A38E5FE1-B02D-4DB7-AB28-DED6F9056787}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+registar signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{44CA4270-7F43-424A-BA50-BA2E5DA3F656}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+adresa signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{825C0260-BFA9-4B78-BACA-7B2268794C99}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+onemogućeno upisivanje vrijednosti</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{4C8B5301-B3B4-4766-A9AB-9E0F81A1A1B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+modbus data type</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="134">
   <si>
@@ -428,7 +679,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +700,19 @@
       <sz val="8"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1120,34 +1384,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1194,7 +1458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
@@ -1241,7 +1505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>130</v>
       </c>
@@ -1288,7 +1552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
@@ -1335,7 +1599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -1382,7 +1646,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
@@ -1429,7 +1693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1476,7 +1740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>78</v>
       </c>
@@ -1523,7 +1787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -1570,7 +1834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -1617,7 +1881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>81</v>
       </c>
@@ -1664,7 +1928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>82</v>
       </c>
@@ -1711,7 +1975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
@@ -1758,7 +2022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
@@ -1805,7 +2069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
@@ -1852,7 +2116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
@@ -1899,7 +2163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>87</v>
       </c>
@@ -1946,7 +2210,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>88</v>
       </c>
@@ -1993,7 +2257,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>89</v>
       </c>
@@ -2040,7 +2304,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>90</v>
       </c>
@@ -2087,7 +2351,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
@@ -2134,7 +2398,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -2181,7 +2445,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
@@ -2228,7 +2492,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
@@ -2275,7 +2539,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>95</v>
       </c>
@@ -2322,7 +2586,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>96</v>
       </c>
@@ -2369,7 +2633,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>97</v>
       </c>
@@ -2416,7 +2680,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
@@ -2463,7 +2727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>99</v>
       </c>
@@ -2510,7 +2774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>100</v>
       </c>
@@ -2557,7 +2821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>101</v>
       </c>
@@ -2604,7 +2868,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>102</v>
       </c>
@@ -2651,7 +2915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -2698,7 +2962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -2745,7 +3009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>105</v>
       </c>
@@ -2792,7 +3056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>106</v>
       </c>
@@ -2839,7 +3103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>107</v>
       </c>
@@ -2886,7 +3150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>108</v>
       </c>
@@ -2933,7 +3197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>109</v>
       </c>
@@ -2980,7 +3244,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>110</v>
       </c>
@@ -3027,7 +3291,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>111</v>
       </c>
@@ -3074,7 +3338,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>112</v>
       </c>
@@ -3121,7 +3385,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>113</v>
       </c>
@@ -3168,7 +3432,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>114</v>
       </c>
@@ -3215,7 +3479,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>115</v>
       </c>
@@ -3262,7 +3526,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>116</v>
       </c>
@@ -3309,7 +3573,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>117</v>
       </c>
@@ -3356,7 +3620,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>118</v>
       </c>
@@ -3403,7 +3667,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>119</v>
       </c>
@@ -3450,7 +3714,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>120</v>
       </c>
@@ -3497,7 +3761,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>121</v>
       </c>
@@ -3544,7 +3808,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>122</v>
       </c>
@@ -3591,7 +3855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>123</v>
       </c>
@@ -3638,7 +3902,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>124</v>
       </c>
@@ -3685,7 +3949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>125</v>
       </c>
@@ -3732,7 +3996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>126</v>
       </c>
@@ -3779,7 +4043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>127</v>
       </c>
@@ -3826,7 +4090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>128</v>
       </c>
@@ -4136,5 +4400,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Config Files/MainAnalog_V0.xlsx
+++ b/Config Files/MainAnalog_V0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3278C5-443B-492A-9F03-699A8321AD0A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0220BAF4-4014-4D89-911A-ED2474C16A43}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{3C3E8BE6-C257-411E-8FE8-9D37AE102B39}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{9E4730D4-E6D5-49DF-B62A-AA51DF2D8C2F}">
       <text>
         <r>
           <rPr>
@@ -70,11 +70,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-registar za provjeru postojanja stignala</t>
+tip registra za provjeru postojanja stignala</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{C5D33290-2C72-4322-9018-FB7A091B30B0}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{7010C620-3396-4DCB-8B9F-540C2E9E4646}">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{89C8D8E1-8B29-4C4D-B5B1-AEA3F8A97359}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{443368EF-ABF1-4979-9AA8-CAB0BE301D4E}">
       <text>
         <r>
           <rPr>
@@ -118,11 +118,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-DW za provjeru postojanja signala</t>
+DW (double word u kojem bitovi označuju postojanje odgovarajućeg signala) za provjeru postojanja signala</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{8A757FE3-A823-425B-9547-D5CEBE1D44B3}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{42DF2156-465B-4E61-9F97-48C79F2078A3}">
       <text>
         <r>
           <rPr>
@@ -142,11 +142,14 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-uvijet za provjeru postojanja signala</t>
+uvijet za provjeru postojanja signala. Npr:
+&lt; 1
+&gt; 2
+== 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{892AA8F1-4FC4-499A-9C98-8B8BD23F8BDE}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{6D6D4426-E836-436A-9FC3-6648DA248FB8}">
       <text>
         <r>
           <rPr>
@@ -170,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{A38E5FE1-B02D-4DB7-AB28-DED6F9056787}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{F538B79F-328F-4DB8-9615-8CB97FE5B783}">
       <text>
         <r>
           <rPr>
@@ -190,11 +193,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-registar signala</t>
+tip registra signala</t>
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{44CA4270-7F43-424A-BA50-BA2E5DA3F656}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{97483753-1740-40FC-A1FD-F782064C7FF7}">
       <text>
         <r>
           <rPr>
@@ -1391,7 +1394,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
